--- a/tests/expected_results/expected_excel_results.xlsx
+++ b/tests/expected_results/expected_excel_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeth/mappings-explorer/tests/expected_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683416DA-C89D-6345-A9D4-B70C631DAC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF44C17-72BE-2243-99A4-538E54B31488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{03E5BEE8-75C6-0942-B5C2-F473EDA01C70}"/>
+    <workbookView xWindow="800" yWindow="13200" windowWidth="29880" windowHeight="7440" xr2:uid="{03E5BEE8-75C6-0942-B5C2-F473EDA01C70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>mapping_framework_version</t>
   </si>
   <si>
-    <t>mapping_framework_version_schema</t>
-  </si>
-  <si>
     <t>T1137</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>nist_800_53</t>
   </si>
   <si>
-    <t>FRAMEWORK_VERSION</t>
-  </si>
-  <si>
     <t>T1137.002</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>10/27/2021</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DF0C68-A4A2-2047-B70A-7BE33C1569D3}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="J5:K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,15 +508,16 @@
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -545,143 +546,143 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>28</v>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>28</v>
+      <c r="I3" t="s">
+        <v>29</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3">
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tests/expected_results/expected_excel_results.xlsx
+++ b/tests/expected_results/expected_excel_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeth/mappings-explorer/tests/expected_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF44C17-72BE-2243-99A4-538E54B31488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5BFAA2-8563-4F4F-A3BD-36AE241791BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="13200" windowWidth="29880" windowHeight="7440" xr2:uid="{03E5BEE8-75C6-0942-B5C2-F473EDA01C70}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>comments</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>complete</t>
+  </si>
+  <si>
+    <t>capability_group</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>28</v>

--- a/tests/expected_results/expected_excel_results.xlsx
+++ b/tests/expected_results/expected_excel_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeth/mappings-explorer/tests/expected_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5BFAA2-8563-4F4F-A3BD-36AE241791BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93D63A-42C3-0448-BF20-2B45E6957A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="13200" windowWidth="29880" windowHeight="7440" xr2:uid="{03E5BEE8-75C6-0942-B5C2-F473EDA01C70}"/>
+    <workbookView xWindow="5960" yWindow="6540" windowWidth="29880" windowHeight="12160" xr2:uid="{03E5BEE8-75C6-0942-B5C2-F473EDA01C70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>comments</t>
   </si>
@@ -50,94 +50,87 @@
     <t>references</t>
   </si>
   <si>
+    <t>capability_id</t>
+  </si>
+  <si>
+    <t>mapping_type</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>last_update</t>
+  </si>
+  <si>
+    <t>attack_version</t>
+  </si>
+  <si>
+    <t>technology_domain</t>
+  </si>
+  <si>
+    <t>mapping_framework</t>
+  </si>
+  <si>
+    <t>mapping_framework_version</t>
+  </si>
+  <si>
+    <t>T1137</t>
+  </si>
+  <si>
+    <t>Office Application Startup</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Concurrent Session Control</t>
+  </si>
+  <si>
+    <t>AC-10</t>
+  </si>
+  <si>
+    <t>mitigates</t>
+  </si>
+  <si>
+    <t>enterprise</t>
+  </si>
+  <si>
+    <t>nist_800_53</t>
+  </si>
+  <si>
+    <t>T1137.002</t>
+  </si>
+  <si>
+    <t>Office Test</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>02/03/2021</t>
+  </si>
+  <si>
+    <t>10/27/2021</t>
+  </si>
+  <si>
+    <t>capability_group</t>
+  </si>
+  <si>
     <t>capability_description</t>
-  </si>
-  <si>
-    <t>capability_id</t>
-  </si>
-  <si>
-    <t>mapping_type</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>creation_date</t>
-  </si>
-  <si>
-    <t>last_update</t>
-  </si>
-  <si>
-    <t>attack_version</t>
-  </si>
-  <si>
-    <t>technology_domain</t>
-  </si>
-  <si>
-    <t>mapping_framework</t>
-  </si>
-  <si>
-    <t>mapping_framework_version</t>
-  </si>
-  <si>
-    <t>T1137</t>
-  </si>
-  <si>
-    <t>Office Application Startup</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Concurrent Session Control</t>
-  </si>
-  <si>
-    <t>AC-10</t>
-  </si>
-  <si>
-    <t>mitigates</t>
-  </si>
-  <si>
-    <t>enterprise</t>
-  </si>
-  <si>
-    <t>nist_800_53</t>
-  </si>
-  <si>
-    <t>T1137.002</t>
-  </si>
-  <si>
-    <t>Office Test</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>02/03/2021</t>
-  </si>
-  <si>
-    <t>10/27/2021</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>capability_group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,11 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -500,20 +492,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DF0C68-A4A2-2047-B70A-7BE33C1569D3}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
@@ -523,168 +519,151 @@
     <col min="17" max="17" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2">
+      <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K11" s="2"/>
     </row>
   </sheetData>

--- a/tests/expected_results/expected_excel_results.xlsx
+++ b/tests/expected_results/expected_excel_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeth/mappings-explorer/tests/expected_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arobbins/Dev/mappings-explorer/tests/expected_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93D63A-42C3-0448-BF20-2B45E6957A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E59E6-86DE-CF45-80B3-C128129F00C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="6540" windowWidth="29880" windowHeight="12160" xr2:uid="{03E5BEE8-75C6-0942-B5C2-F473EDA01C70}"/>
+    <workbookView xWindow="-2120" yWindow="-17060" windowWidth="29400" windowHeight="12160" xr2:uid="{03E5BEE8-75C6-0942-B5C2-F473EDA01C70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>comments</t>
   </si>
@@ -123,15 +123,24 @@
   </si>
   <si>
     <t>capability_description</t>
+  </si>
+  <si>
+    <t>score_category</t>
+  </si>
+  <si>
+    <t>score_value</t>
+  </si>
+  <si>
+    <t>related_score</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -147,9 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -161,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,15 +178,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -342,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,86 +516,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DF0C68-A4A2-2047-B70A-7BE33C1569D3}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -591,28 +605,28 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -632,39 +646,21 @@
       <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
